--- a/Sentence2vec/input/test.xlsx
+++ b/Sentence2vec/input/test.xlsx
@@ -4,19 +4,19 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="input" sheetId="1" r:id="rId1"/>
+    <sheet name="out_neg" sheetId="2" r:id="rId2"/>
+    <sheet name="out_pos" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="100">
   <si>
     <t>cả buổi giơ tay từ đầu giờ đến cuối giờ vẫn không được mời trả_lời trong khi nhiều người lại được trả_lời đến lần</t>
   </si>
@@ -163,6 +163,159 @@
   </si>
   <si>
     <t>thái_độ không vui_vẻ và không thèm quan_tâm hay đánh_giá bài_tập cho các bạn còn lại</t>
+  </si>
+  <si>
+    <t>cô xinh_đẹp dễ_thương tận_tâm giảng_dạy tiết học sôi_động vui_vẻ dễ tiếp_thu hơn những thầy_cô trước giờ từng học</t>
+  </si>
+  <si>
+    <t>truyền_đạt kiến_thức cho sinh_viên rất tận_tình</t>
+  </si>
+  <si>
+    <t>cô vừa tâm_lý vừa dạy rất tận_tâm</t>
+  </si>
+  <si>
+    <t>thầy_hiền và dễ_thương dạy chậm mà chắc</t>
+  </si>
+  <si>
+    <t>môn_học rất hữu_ích giảng_viên giảng_dạy gần_gũi nhưng rất sâu_rộng giúp sinh_viên liên_hệ hiệu_quả với thực_tiễn</t>
+  </si>
+  <si>
+    <t>mong_muốn cô truyền_đạt nhiều kiến_thức hơn bởi_vì khi dạy cô chỉ cho làm bài_tập rồi đọc đáp_án sửa nên vẫn chưa hiểu rõ được bài</t>
+  </si>
+  <si>
+    <t>thầy dạy rất dễ hiểu và rất nhiệt_tình</t>
+  </si>
+  <si>
+    <t>cô giảng_dạy tận_tình chuyên_sâu vào môn_học và rất có tâm</t>
+  </si>
+  <si>
+    <t>thầy dạy nhiệt_tình có tâm_huyết trong giảng_dạy</t>
+  </si>
+  <si>
+    <t>thầy giảng_dạy khá dễ hiểu thường_xuyên cho làm bài_tập trên lớp và bài_tập về nhà để củng_cố kiến_thức</t>
+  </si>
+  <si>
+    <t>em rất thích cách dạy của cô nhờ cách dạy đó mà điểm em cao hơn đợt học tiếng anh</t>
+  </si>
+  <si>
+    <t>thầy nhiệt_tình giảng_dạy sinh_viên</t>
+  </si>
+  <si>
+    <t>giảng_viên dạy e rất tiếp_thu bài liên_hệ với thực_tế nhiều</t>
+  </si>
+  <si>
+    <t>thầy_thân_thiện và nhiệt_tình với sinh_viên</t>
+  </si>
+  <si>
+    <t>giảng_viên dạy giỏi và vui_vẻ hòa_đồng với sinh_viên</t>
+  </si>
+  <si>
+    <t>giảng_viên giảng_dạy tốt nhiệt_tình nhưng đôi_khi còn hay bận công_việc ngoài nhiều nên nhờ người khác lên giữ lớp</t>
+  </si>
+  <si>
+    <t>giảng_viên dạy nhiệt_tình có đưa ra nhiều ví_dụ trong quá_trình giảng_dạy</t>
+  </si>
+  <si>
+    <t>giảng_viên dạy nhiệt_tình nhưng do môn_học liên_quan các quy_định nhiều nên không gây được húng thú lắm đối_với sinh_viên</t>
+  </si>
+  <si>
+    <t>truyền_đạt kiến_thức chuyên_môn rất bổ_ích</t>
+  </si>
+  <si>
+    <t>giảng_viên rất tận_tình với sinh_viên</t>
+  </si>
+  <si>
+    <t>thầy dạy tốt và nhiệt_tình với sinh_viên</t>
+  </si>
+  <si>
+    <t>cô giảng_dạy nhiệt_tình giúp sinh_viên dễ tiếp_thu</t>
+  </si>
+  <si>
+    <t>cô nhiệt_tình trong việc giảng_dạy</t>
+  </si>
+  <si>
+    <t>giảng_viên có kiến_thức chuyên_môn và kiến_thức thực_tế rất nhiều</t>
+  </si>
+  <si>
+    <t>e thích cô dạy cô vui_vẻ hòa_đồng dễ_tính dễ_thương và tích_cực trong việc giảng_dạy</t>
+  </si>
+  <si>
+    <t>thầy dạy nhiệt_tình dễ hiểu cung_cấp tài_khoản học trực_tuyến cho sinh_viên dễ học hơn</t>
+  </si>
+  <si>
+    <t>thầy dạy dễ hiểu quan_tâm nhiều đến sinh_viên</t>
+  </si>
+  <si>
+    <t>cô dạy nhiệt_tình nắm rõ cấu_trúc bài dễ hiểu</t>
+  </si>
+  <si>
+    <t>thầy_dạy hay tốt kiến_thức sâu_rộng</t>
+  </si>
+  <si>
+    <t>giảng_viên giảng_dạy nhiệt_tình hòa_đồng với sinh_viên</t>
+  </si>
+  <si>
+    <t>giảng_viên nhiệt_tình trong việc giảng_dạy</t>
+  </si>
+  <si>
+    <t>cô nhiệt_tình trong giảng_dạy và hòa_đồng vui_vẻ với sinh_viên</t>
+  </si>
+  <si>
+    <t>cô hòa_đồng với sinh_viên giảng_dạy nhiệt_tình và có những phương_pháp dạy truyền_đạt dễ hiểu</t>
+  </si>
+  <si>
+    <t>thầy nên có cách dạy mới và nói những thứ cần_thiết trong môn_học</t>
+  </si>
+  <si>
+    <t>giảng_viên hòa_đồng với sinh_viên và nhiệt_tình trong giảng_dạy</t>
+  </si>
+  <si>
+    <t>em rất chi_là hài_lòng với giảng_viên này cô dạy rất chi_là xuất_sắc đó nha em xin cảm_ơn</t>
+  </si>
+  <si>
+    <t>thầy cực_kỳ tuyệt_vời giảng bài rất hay và nhiều ví_dụ gần_gũi trong thực_tế</t>
+  </si>
+  <si>
+    <t>thầy giảng bài hay cho em nhiều kiến_thức mới cũng như củng_cố lại kiến_thức cũ</t>
+  </si>
+  <si>
+    <t>thầy hướng_dẫn nhiệt_tình giúp_đỡ những sinh_viên còn yếu mong thầy tiếp_tục giữ vững phong_độ</t>
+  </si>
+  <si>
+    <t>cô truyền_tải kiến_thức hiệu_quả học_sinh dễ tiếp_thu kiến_thức và vận_dụng trong bài_tập</t>
+  </si>
+  <si>
+    <t>giảng_viên hướng_dẫn nhiệt_tình chuyên_nghiệp</t>
+  </si>
+  <si>
+    <t>giảng_viên dạy nhiệt_tình dễ hiểu</t>
+  </si>
+  <si>
+    <t>thầy dạy rất hay thu_hút sinh_viên vào bài_giảng hài_hước</t>
+  </si>
+  <si>
+    <t>cô dạy rất tốt học_sinh dễ tiếp_thu kiến_thức</t>
+  </si>
+  <si>
+    <t>giảng_viên dễ_thương tận_tình với sinh_viên</t>
+  </si>
+  <si>
+    <t>thầy dạy tốt kiến_thức sâu_rộng dễ hiểu</t>
+  </si>
+  <si>
+    <t>thầy rất tốt và chỉ giảng cho sinh_viên nhiều cả kiến_thức trong lẫn ngoài</t>
+  </si>
+  <si>
+    <t>giảng_viên dạy tận_tâm tận_tình với sinh_viện</t>
+  </si>
+  <si>
+    <t>thầy dạy nhiệt_tình dễ hiểu kiến_thức sâu_rộng</t>
+  </si>
+  <si>
+    <t>cô rất tốt rất nhiệt_tình môn_học rất thú_vị</t>
+  </si>
+  <si>
+    <t>giảng_viên nhiệt tình trong giảng dạy với sinh viên</t>
   </si>
 </sst>
 </file>
@@ -530,10 +683,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A50"/>
+  <dimension ref="A1:A101"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
+    <sheetView topLeftCell="A89" workbookViewId="0">
+      <selection activeCell="E104" sqref="E104"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -789,6 +942,261 @@
     <row r="50" spans="1:1" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A50" s="2" t="s">
         <v>46</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A51" s="2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A52" s="2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A53" s="2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A54" s="2" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A55" s="2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A56" s="2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A57" s="2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A58" s="2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A59" s="2" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A60" s="2" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A61" s="2" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="62" spans="1:1" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A62" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="63" spans="1:1" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A63" s="2" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="64" spans="1:1" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A64" s="2" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A65" s="2" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A66" s="2" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A67" s="2" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A68" s="2" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="69" spans="1:1" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A69" s="2" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="70" spans="1:1" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A70" s="2" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="71" spans="1:1" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A71" s="2" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="72" spans="1:1" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A72" s="2" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="73" spans="1:1" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A73" s="2" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="74" spans="1:1" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A74" s="2" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="75" spans="1:1" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A75" s="2" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="76" spans="1:1" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A76" s="2" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="77" spans="1:1" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A77" s="2" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="78" spans="1:1" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A78" s="2" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="79" spans="1:1" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A79" s="2" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="80" spans="1:1" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A80" s="2" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="81" spans="1:1" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A81" s="2" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="82" spans="1:1" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A82" s="2" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="83" spans="1:1" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A83" s="2" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="84" spans="1:1" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A84" s="2" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="85" spans="1:1" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A85" s="2" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="86" spans="1:1" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A86" s="2" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="87" spans="1:1" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A87" s="2" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="88" spans="1:1" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A88" s="2" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="89" spans="1:1" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A89" s="2" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="90" spans="1:1" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A90" s="2" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="91" spans="1:1" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A91" s="2" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="92" spans="1:1" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A92" s="2" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="93" spans="1:1" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A93" s="2" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="94" spans="1:1" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A94" s="2" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="95" spans="1:1" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A95" s="2" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="96" spans="1:1" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A96" s="2" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="97" spans="1:1" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A97" s="2" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="98" spans="1:1" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A98" s="2" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="99" spans="1:1" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A99" s="2" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="100" spans="1:1" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A100" s="2" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="101" spans="1:1" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A101" s="2" t="s">
+        <v>99</v>
       </c>
     </row>
   </sheetData>
@@ -813,7 +1221,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F17" sqref="F17"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
